--- a/flows/USCI_fund_flow_data.xlsx
+++ b/flows/USCI_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3410"/>
+  <dimension ref="A1:B3428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34535,6 +34535,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3411">
+      <c r="A3411" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B3411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3412">
+      <c r="A3412" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B3412" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3413">
+      <c r="A3413" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B3413" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3414">
+      <c r="A3414" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B3414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3415">
+      <c r="A3415" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B3415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3416">
+      <c r="A3416" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B3416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3417">
+      <c r="A3417" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3418">
+      <c r="A3418" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3419">
+      <c r="A3419" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3420">
+      <c r="A3420" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3421">
+      <c r="A3421" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3422">
+      <c r="A3422" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3423">
+      <c r="A3423" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3424">
+      <c r="A3424" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3425">
+      <c r="A3425" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3426">
+      <c r="A3426" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3427">
+      <c r="A3427" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3428">
+      <c r="A3428" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B3428" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
